--- a/books/carbomica_framework_AKHS_Mombasa.xlsx
+++ b/books/carbomica_framework_AKHS_Mombasa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
   <si>
     <t>Name</t>
   </si>
@@ -137,226 +137,10 @@
     <t>co2e_emissions</t>
   </si>
   <si>
-    <t>Grid_Electricity_baseline</t>
-  </si>
-  <si>
-    <t>Grid_Electricity_mult</t>
-  </si>
-  <si>
-    <t>Grid_Electricity</t>
-  </si>
-  <si>
-    <t>Grid_Gas_baseline</t>
-  </si>
-  <si>
-    <t>Grid_Gas_mult</t>
-  </si>
-  <si>
-    <t>Grid_Gas</t>
-  </si>
-  <si>
-    <t>Bottled_Gas_baseline</t>
-  </si>
-  <si>
-    <t>Bottled_Gas_mult</t>
-  </si>
-  <si>
-    <t>Bottled_Gas</t>
-  </si>
-  <si>
-    <t>Liquid_Fuel_baseline</t>
-  </si>
-  <si>
-    <t>Liquid_Fuel_mult</t>
-  </si>
-  <si>
-    <t>Liquid_Fuel</t>
-  </si>
-  <si>
-    <t>Vehicle_Fuel_Owned_baseline</t>
-  </si>
-  <si>
-    <t>Vehicle_Fuel_Owned_mult</t>
-  </si>
-  <si>
-    <t>Vehicle_Fuel_Owned</t>
-  </si>
-  <si>
-    <t>Business_Travel_baseline</t>
-  </si>
-  <si>
-    <t>Business_Travel_mult</t>
-  </si>
-  <si>
-    <t>Business_Travel</t>
-  </si>
-  <si>
-    <t>Anaesthetic_Gases_baseline</t>
-  </si>
-  <si>
-    <t>Anaesthetic_Gases_mult</t>
-  </si>
-  <si>
-    <t>Anaesthetic_Gases</t>
-  </si>
-  <si>
-    <t>Refrigeration_Gases_baseline</t>
-  </si>
-  <si>
-    <t>Refrigeration_Gases_mult</t>
-  </si>
-  <si>
-    <t>Refrigeration_Gases</t>
-  </si>
-  <si>
-    <t>Waste_Management_baseline</t>
-  </si>
-  <si>
-    <t>Waste_Management_mult</t>
-  </si>
-  <si>
-    <t>Waste_Management</t>
-  </si>
-  <si>
-    <t>Medical_Inhalers_baseline</t>
-  </si>
-  <si>
-    <t>Medical_Inhalers_mult</t>
-  </si>
-  <si>
-    <t>Medical_Inhalers</t>
-  </si>
-  <si>
     <t>Total CO2e emissions</t>
   </si>
   <si>
-    <t>Grid Electricity - baseline</t>
-  </si>
-  <si>
-    <t>Grid Electricity - multiplier</t>
-  </si>
-  <si>
-    <t>Grid Electricity</t>
-  </si>
-  <si>
-    <t>Grid gas - baseline</t>
-  </si>
-  <si>
-    <t>Grid gas - multiplier</t>
-  </si>
-  <si>
-    <t>Grid gas</t>
-  </si>
-  <si>
-    <t>Bottled gas (LPG) - baseline</t>
-  </si>
-  <si>
-    <t>Bottled gas (LPG) - multiplier</t>
-  </si>
-  <si>
-    <t>Bottled gas (LPG)</t>
-  </si>
-  <si>
-    <t>Liquid fuel (Petrol or Diesel) - baseline</t>
-  </si>
-  <si>
-    <t>Liquid fuel (Petrol or Diesel) - multiplier</t>
-  </si>
-  <si>
-    <t>Liquid fuel (Petrol or Diesel)</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
-  </si>
-  <si>
-    <t>Vehicle Fuel (Owned Vehicles)</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - baseline</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
-  </si>
-  <si>
-    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus)</t>
-  </si>
-  <si>
-    <t>Anaesthetic gases - baseline</t>
-  </si>
-  <si>
-    <t>Anaesthetic gases - multiplier</t>
-  </si>
-  <si>
-    <t>Anaesthetic gases</t>
-  </si>
-  <si>
-    <t>Refrigerants - baseline</t>
-  </si>
-  <si>
-    <t>Refrigerants - multiplier</t>
-  </si>
-  <si>
-    <t>Refrigerants</t>
-  </si>
-  <si>
-    <t>Waste - baseline</t>
-  </si>
-  <si>
-    <t>Waste - multiplier</t>
-  </si>
-  <si>
-    <t>Waste</t>
-  </si>
-  <si>
-    <t>Inhalers - baseline</t>
-  </si>
-  <si>
-    <t>Inhalers - multiplier</t>
-  </si>
-  <si>
-    <t>Inhalers</t>
-  </si>
-  <si>
     <t>number</t>
-  </si>
-  <si>
-    <t>Grid_Electricity+Grid_Gas+Bottled_Gas+Liquid_Fuel+Vehicle_Fuel_Owned+Business_Travel+Anaesthetic_Gases+Refrigeration_Gases+Waste_Management+Medical_Inhalers</t>
-  </si>
-  <si>
-    <t>Grid_Electricity_baseline*(1-Grid_Electricity_mult)</t>
-  </si>
-  <si>
-    <t>Grid_Gas_baseline*(1-Grid_Gas_mult)</t>
-  </si>
-  <si>
-    <t>Bottled_Gas_baseline*(1-Bottled_Gas_mult)</t>
-  </si>
-  <si>
-    <t>Liquid_Fuel_baseline*(1-Liquid_Fuel_mult)</t>
-  </si>
-  <si>
-    <t>Vehicle_Fuel_Owned_baseline*(1-Vehicle_Fuel_Owned_mult)</t>
-  </si>
-  <si>
-    <t>Business_Travel_baseline*(1-Business_Travel_mult)</t>
-  </si>
-  <si>
-    <t>Anaesthetic_Gases_baseline*(1-Anaesthetic_Gases_mult)</t>
-  </si>
-  <si>
-    <t>Refrigeration_Gases_baseline*(1-Refrigeration_Gases_mult)</t>
-  </si>
-  <si>
-    <t>Waste_Management_baseline*(1-Waste_Management_mult)</t>
-  </si>
-  <si>
-    <t>Medical_Inhalers_baseline*(1-Medical_Inhalers_mult)</t>
-  </si>
-  <si>
-    <t>y</t>
   </si>
   <si>
     <t>Components</t>
@@ -918,13 +702,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -961,565 +745,19 @@
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H2" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="I2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>111</v>
-      </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H5" t="s">
-        <v>101</v>
-      </c>
-      <c r="I5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H8" t="s">
-        <v>102</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" t="s">
-        <v>77</v>
-      </c>
-      <c r="H11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" t="s">
-        <v>78</v>
-      </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I14" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
-      </c>
-      <c r="I15" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>111</v>
-      </c>
-      <c r="K16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" t="s">
-        <v>83</v>
-      </c>
-      <c r="H17" t="s">
-        <v>105</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="M17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
-      <c r="I18" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="H20" t="s">
-        <v>106</v>
-      </c>
-      <c r="I20" t="s">
-        <v>28</v>
-      </c>
-      <c r="M20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" t="s">
-        <v>87</v>
-      </c>
-      <c r="I21" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" t="s">
-        <v>88</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="I22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K22" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="H23" t="s">
-        <v>107</v>
-      </c>
-      <c r="I23" t="s">
-        <v>28</v>
-      </c>
-      <c r="M23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>1</v>
-      </c>
-      <c r="I25" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" t="s">
-        <v>108</v>
-      </c>
-      <c r="I26" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" t="s">
-        <v>93</v>
-      </c>
-      <c r="I27" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="I28" t="s">
-        <v>111</v>
-      </c>
-      <c r="K28" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
-      <c r="H29" t="s">
-        <v>109</v>
-      </c>
-      <c r="I29" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
-      <c r="I30" t="s">
-        <v>28</v>
-      </c>
-      <c r="K30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="I31" t="s">
-        <v>111</v>
-      </c>
-      <c r="K31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B32" t="s">
-        <v>98</v>
-      </c>
-      <c r="H32" t="s">
-        <v>110</v>
-      </c>
-      <c r="I32" t="s">
-        <v>28</v>
-      </c>
-      <c r="M32" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1543,10 +781,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -1585,10 +823,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1612,16 +850,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/books/carbomica_framework_AKHS_Mombasa.xlsx
+++ b/books/carbomica_framework_AKHS_Mombasa.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="120">
   <si>
     <t>Name</t>
   </si>
@@ -137,10 +137,226 @@
     <t>co2e_emissions</t>
   </si>
   <si>
+    <t>Grid_Electricity_baseline</t>
+  </si>
+  <si>
+    <t>Grid_Electricity_mult</t>
+  </si>
+  <si>
+    <t>Grid_Electricity</t>
+  </si>
+  <si>
+    <t>Grid_Gas_baseline</t>
+  </si>
+  <si>
+    <t>Grid_Gas_mult</t>
+  </si>
+  <si>
+    <t>Grid_Gas</t>
+  </si>
+  <si>
+    <t>Bottled_Gas_baseline</t>
+  </si>
+  <si>
+    <t>Bottled_Gas_mult</t>
+  </si>
+  <si>
+    <t>Bottled_Gas</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel_baseline</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel_mult</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned_baseline</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned_mult</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned</t>
+  </si>
+  <si>
+    <t>Business_Travel_baseline</t>
+  </si>
+  <si>
+    <t>Business_Travel_mult</t>
+  </si>
+  <si>
+    <t>Business_Travel</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases_baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases_mult</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases_baseline</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases_mult</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases</t>
+  </si>
+  <si>
+    <t>Waste_Management_baseline</t>
+  </si>
+  <si>
+    <t>Waste_Management_mult</t>
+  </si>
+  <si>
+    <t>Waste_Management</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers_baseline</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers_mult</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers</t>
+  </si>
+  <si>
     <t>Total CO2e emissions</t>
   </si>
   <si>
+    <t>Grid Electricity - baseline</t>
+  </si>
+  <si>
+    <t>Grid Electricity - multiplier</t>
+  </si>
+  <si>
+    <t>Grid Electricity</t>
+  </si>
+  <si>
+    <t>Grid gas - baseline</t>
+  </si>
+  <si>
+    <t>Grid gas - multiplier</t>
+  </si>
+  <si>
+    <t>Grid gas</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - baseline</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG) - multiplier</t>
+  </si>
+  <si>
+    <t>Bottled gas (LPG)</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - baseline</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel) - multiplier</t>
+  </si>
+  <si>
+    <t>Liquid fuel (Petrol or Diesel)</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - baseline</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles) - multiplier</t>
+  </si>
+  <si>
+    <t>Vehicle Fuel (Owned Vehicles)</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - baseline</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus) - multiplier</t>
+  </si>
+  <si>
+    <t>Business travel (Taxi, Car hires, Train, Air travel, Local bus)</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - baseline</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases - multiplier</t>
+  </si>
+  <si>
+    <t>Anaesthetic gases</t>
+  </si>
+  <si>
+    <t>Refrigerants - baseline</t>
+  </si>
+  <si>
+    <t>Refrigerants - multiplier</t>
+  </si>
+  <si>
+    <t>Refrigerants</t>
+  </si>
+  <si>
+    <t>Waste - baseline</t>
+  </si>
+  <si>
+    <t>Waste - multiplier</t>
+  </si>
+  <si>
+    <t>Waste</t>
+  </si>
+  <si>
+    <t>Inhalers - baseline</t>
+  </si>
+  <si>
+    <t>Inhalers - multiplier</t>
+  </si>
+  <si>
+    <t>Inhalers</t>
+  </si>
+  <si>
     <t>number</t>
+  </si>
+  <si>
+    <t>Grid_Electricity+Grid_Gas+Bottled_Gas+Liquid_Fuel+Vehicle_Fuel_Owned+Business_Travel+Anaesthetic_Gases+Refrigeration_Gases+Waste_Management+Medical_Inhalers</t>
+  </si>
+  <si>
+    <t>Grid_Electricity_baseline*(1-Grid_Electricity_mult)</t>
+  </si>
+  <si>
+    <t>Grid_Gas_baseline*(1-Grid_Gas_mult)</t>
+  </si>
+  <si>
+    <t>Bottled_Gas_baseline*(1-Bottled_Gas_mult)</t>
+  </si>
+  <si>
+    <t>Liquid_Fuel_baseline*(1-Liquid_Fuel_mult)</t>
+  </si>
+  <si>
+    <t>Vehicle_Fuel_Owned_baseline*(1-Vehicle_Fuel_Owned_mult)</t>
+  </si>
+  <si>
+    <t>Business_Travel_baseline*(1-Business_Travel_mult)</t>
+  </si>
+  <si>
+    <t>Anaesthetic_Gases_baseline*(1-Anaesthetic_Gases_mult)</t>
+  </si>
+  <si>
+    <t>Refrigeration_Gases_baseline*(1-Refrigeration_Gases_mult)</t>
+  </si>
+  <si>
+    <t>Waste_Management_baseline*(1-Waste_Management_mult)</t>
+  </si>
+  <si>
+    <t>Medical_Inhalers_baseline*(1-Medical_Inhalers_mult)</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
   <si>
     <t>Components</t>
@@ -702,13 +918,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -745,19 +961,565 @@
       <c r="L1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>37</v>
       </c>
       <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-      <c r="I2" t="s">
-        <v>28</v>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>111</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H5" t="s">
+        <v>101</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="I15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>111</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" t="s">
+        <v>105</v>
+      </c>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" t="s">
+        <v>84</v>
+      </c>
+      <c r="I18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
+      <c r="K19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" t="s">
+        <v>87</v>
+      </c>
+      <c r="I21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22" t="s">
+        <v>111</v>
+      </c>
+      <c r="K22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="s">
+        <v>28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I24" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H26" t="s">
+        <v>108</v>
+      </c>
+      <c r="I26" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>111</v>
+      </c>
+      <c r="K28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="H29" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>97</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="I31" t="s">
+        <v>111</v>
+      </c>
+      <c r="K31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="H32" t="s">
+        <v>110</v>
+      </c>
+      <c r="I32" t="s">
+        <v>28</v>
+      </c>
+      <c r="M32" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -781,10 +1543,10 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>32</v>
@@ -823,10 +1585,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -850,16 +1612,16 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
